--- a/biology/Zoologie/Conus_glenni/Conus_glenni.xlsx
+++ b/biology/Zoologie/Conus_glenni/Conus_glenni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus glenni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Panama et de la Colombie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend de Bocas del Toro aux îles San Blas au Panama et aux îles de San Andres (Colombie). Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,20 +554,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend de Bocas del Toro aux îles San Blas au Panama et aux îles de San Andres (Colombie). Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_glenni</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_glenni</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus glenni a été décrite pour la première fois en 1993 par le malacologiste américain Edward James Petuch (d)[2] dans la publication intitulée « La Conchiglia »[3],[4].
-Synonymes
-Atlanticonus glenni (Petuch, 1993) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus glenni a été décrite pour la première fois en 1993 par le malacologiste américain Edward James Petuch (d) dans la publication intitulée « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_glenni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_glenni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Atlanticonus glenni (Petuch, 1993) · non accepté
 Conus (Atlanticonus) glenni Petuch, 1993 · appellation alternative
 Conus (Leporiconus) glenni Petuch, 1993 · non accepté
-Gladioconus glenni (Petuch, 1993) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus glenni dans les principales bases sont les suivants :
+Gladioconus glenni (Petuch, 1993) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_glenni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_glenni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus glenni dans les principales bases sont les suivants :
 CoL : XXGW - GBIF : 6509877 - iNaturalist : 431992 - IRMNG : 11783249 - TAXREF : 150752 - UICN : 192262 - WoRMS : 428988
 </t>
         </is>
